--- a/similarities/split_global/harmonic_similarity_timestamps_369.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_369.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:19.980000')]</t>
+          <t>('0:01:36.749660', '0:01:51.796190')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb'], ['Ab/5', 'Eb', 'Ab/5']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:38.200000', '0:00:41.060000'), ('0:00:51.600000', '0:00:55.800000')]</t>
+          <t>('0:00:10.130000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:26.660000', '0:00:30.531000'), ('0:00:18.978000', '0:00:24.727000')]</t>
+          <t>('0:00:24.500000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=38.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=51.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=24.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:01:26.260000', '0:01:32.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:01:54.300000', '0:02:03.140000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=114.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:45.240000', '0:02:00.100000'), ('0:01:55.700000', '0:02:10.980000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.240000'), ('0:01:02', '0:01:07.100000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=105.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A:7', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:09.260000', '0:03:11.680000'), ('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:00:38.689000', '0:00:45.633000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:44.120000', '0:00:48.280000'), ('0:01:46.960000', '0:01:58.780000')]</t>
+          <t>('0:01:10.740000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=189.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=38.689</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=44.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=106.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Bb:min', 'F', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:01:13.700000', '0:01:16.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:30.600000', '0:01:41.180000')]</t>
+          <t>('0:00:22.996837', '0:00:30.067314')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=73.7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=90.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=22.996837</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G#:7/D#', 'C#/F', 'G#:7', 'C#'], ['C#/F', 'A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:26.940000', '0:01:37.980000'), ('0:01:35.020000', '0:01:47.700000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:44.060000', '0:00:47.700000'), ('0:01:09', '0:01:14.900000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=44.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=69.0']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:10.620000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:10.779093', '0:00:14.076327')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:11.400000', '0:00:16.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=11.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G'], ['G:7', 'C', 'G']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:30.320000'), ('0:00:00.780000', '0:00:23.840000'), ('0:01:12.420000', '0:01:15.580000')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:07.100430'), ('0:01:07.100430', '0:01:15.018435'), ('0:01:00.006734', '0:01:08.830317')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=72.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:09.640000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=16.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:04.080000', '0:00:08.700000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.979523', '0:00:47.885918')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=4.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-95#t=39.979523']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+          <t>('0:01:40.240000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+          <t>('0:00:24.860000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
